--- a/biology/Zoologie/Brachinus_solidipalpis/Brachinus_solidipalpis.xlsx
+++ b/biology/Zoologie/Brachinus_solidipalpis/Brachinus_solidipalpis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Brachinus solidipalpis est une espèce de coléoptères bombardiers de la famille des Carabidae.
-Conservée dans la collection de coléoptères du Muséum national d'histoire naturelle (France), l'espèce était conservée depuis 1843 et attendait d'être décrite. Sept spécimens existants avaient été collectés à Manille, aux Philippines. Depuis, l'espèce n'a pas été retrouvée dans la nature[1].
+Conservée dans la collection de coléoptères du Muséum national d'histoire naturelle (France), l'espèce était conservée depuis 1843 et attendait d'être décrite. Sept spécimens existants avaient été collectés à Manille, aux Philippines. Depuis, l'espèce n'a pas été retrouvée dans la nature.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Sa dénomination spécifique vient du fait que Brachinus solidipalpis dispose de palpes buccaux plus massifs et plus épais que ceux des autres espèces de Brachinus.
 </t>
